--- a/Base_a_analyser/roles_repas.xlsx
+++ b/Base_a_analyser/roles_repas.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaca\Documents\IODAA\Fil rouge\Base à analyser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APT\3e_annee\Projet fil rouge\code_groupe\recommandations_alimentation\Base_a_analyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3DEF19-340E-491D-9D2F-DE9DE9C57C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AAEEE90-3982-4F77-808B-9E5A01EEDD60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$B$48</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>role</t>
   </si>
@@ -241,12 +243,15 @@
   </si>
   <si>
     <t>Noms des groupes</t>
+  </si>
+  <si>
+    <t>eaux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,21 +596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B526A-0053-4CE3-9B11-D517A30E8FA0}">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -619,7 +624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -633,7 +638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -647,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -661,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -675,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -689,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -703,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -717,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -731,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -745,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -759,7 +764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -773,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -787,7 +792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -801,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -815,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -829,7 +834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -843,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -857,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -871,7 +876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -885,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -899,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -913,7 +918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -927,7 +932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -941,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -955,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -969,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -983,7 +988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -997,12 +1002,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1011,12 +1016,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -1025,12 +1030,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1039,26 +1044,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>17</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1067,12 +1072,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1081,12 +1086,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1095,12 +1100,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1109,12 +1114,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1123,12 +1128,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -1137,12 +1142,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1151,12 +1156,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1165,54 +1170,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>30</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>63</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>11</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44">
-        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1221,12 +1226,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -1235,12 +1240,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1249,21 +1254,36 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>44</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>25</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Base_a_analyser/roles_repas.xlsx
+++ b/Base_a_analyser/roles_repas.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$B$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$B$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>role</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>viennoiserie</t>
-  </si>
-  <si>
-    <t>biscuit</t>
   </si>
   <si>
     <t>pâtisserie</t>
@@ -597,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +609,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -626,72 +623,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,7 +707,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -724,7 +721,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -738,552 +735,512 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
         <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B44">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B48"/>
+  <sortState ref="A2:D48">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Base_a_analyser/roles_repas.xlsx
+++ b/Base_a_analyser/roles_repas.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$B$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$1:$B$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>role</t>
   </si>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,24 +749,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -777,38 +777,38 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -847,24 +847,24 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -875,10 +875,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -917,10 +917,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -931,94 +931,94 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1029,38 +1029,38 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1085,24 +1085,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1113,24 +1113,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1169,24 +1169,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1197,43 +1197,29 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
         <v>26</v>
       </c>
     </row>
